--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8286,16 +8286,16 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2078216900000</v>
+        <v>2078216858000</v>
       </c>
       <c r="D314" t="n">
-        <v>2078216900000</v>
+        <v>2078216858000</v>
       </c>
       <c r="E314" t="n">
-        <v>2078216900000</v>
+        <v>2078216858000</v>
       </c>
       <c r="F314" t="n">
-        <v>2078216900000</v>
+        <v>2078216858000</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
@@ -8311,16 +8311,16 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2082184000000</v>
+        <v>2082183969000</v>
       </c>
       <c r="D315" t="n">
-        <v>2082184000000</v>
+        <v>2082183969000</v>
       </c>
       <c r="E315" t="n">
-        <v>2082184000000</v>
+        <v>2082183969000</v>
       </c>
       <c r="F315" t="n">
-        <v>2082184000000</v>
+        <v>2082183969000</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -8336,18 +8336,93 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2118202300000</v>
+        <v>2118202312000</v>
       </c>
       <c r="D316" t="n">
-        <v>2118202300000</v>
+        <v>2118202312000</v>
       </c>
       <c r="E316" t="n">
-        <v>2118202300000</v>
+        <v>2118202312000</v>
       </c>
       <c r="F316" t="n">
-        <v>2118202300000</v>
+        <v>2118202312000</v>
       </c>
       <c r="G316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2121975670000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2121975670000</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2121975670000</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2121975670000</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>2135028350000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2135028350000</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2135028350000</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2135028350000</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>2140971740000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2140971740000</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2140971740000</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2140971740000</v>
+      </c>
+      <c r="G319" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8261,16 +8261,16 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2068678100000</v>
+        <v>2068678071000</v>
       </c>
       <c r="D313" t="n">
-        <v>2068678100000</v>
+        <v>2068678071000</v>
       </c>
       <c r="E313" t="n">
-        <v>2068678100000</v>
+        <v>2068678071000</v>
       </c>
       <c r="F313" t="n">
-        <v>2068678100000</v>
+        <v>2068678071000</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -8361,16 +8361,16 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2121975670000</v>
+        <v>2121975673000</v>
       </c>
       <c r="D317" t="n">
-        <v>2121975670000</v>
+        <v>2121975673000</v>
       </c>
       <c r="E317" t="n">
-        <v>2121975670000</v>
+        <v>2121975673000</v>
       </c>
       <c r="F317" t="n">
-        <v>2121975670000</v>
+        <v>2121975673000</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>
@@ -8386,16 +8386,16 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2135028350000</v>
+        <v>2135028349000</v>
       </c>
       <c r="D318" t="n">
-        <v>2135028350000</v>
+        <v>2135028349000</v>
       </c>
       <c r="E318" t="n">
-        <v>2135028350000</v>
+        <v>2135028349000</v>
       </c>
       <c r="F318" t="n">
-        <v>2135028350000</v>
+        <v>2135028349000</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
@@ -8423,6 +8423,31 @@
         <v>2140971740000</v>
       </c>
       <c r="G319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>2139841737000</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2139841737000</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2139841737000</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2139841737000</v>
+      </c>
+      <c r="G320" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>140038700000</v>
+        <v>140038726000</v>
       </c>
       <c r="D2" t="n">
-        <v>140038700000</v>
+        <v>140038726000</v>
       </c>
       <c r="E2" t="n">
-        <v>140038700000</v>
+        <v>140038726000</v>
       </c>
       <c r="F2" t="n">
-        <v>140038700000</v>
+        <v>140038726000</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138755500000</v>
+        <v>138755527000</v>
       </c>
       <c r="D3" t="n">
-        <v>138755500000</v>
+        <v>138755527000</v>
       </c>
       <c r="E3" t="n">
-        <v>138755500000</v>
+        <v>138755527000</v>
       </c>
       <c r="F3" t="n">
-        <v>138755500000</v>
+        <v>138755527000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>141142500000</v>
+        <v>141142528000</v>
       </c>
       <c r="D4" t="n">
-        <v>141142500000</v>
+        <v>141142528000</v>
       </c>
       <c r="E4" t="n">
-        <v>141142500000</v>
+        <v>141142528000</v>
       </c>
       <c r="F4" t="n">
-        <v>141142500000</v>
+        <v>141142528000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>144080800000</v>
+        <v>144080767000</v>
       </c>
       <c r="D5" t="n">
-        <v>144080800000</v>
+        <v>144080767000</v>
       </c>
       <c r="E5" t="n">
-        <v>144080800000</v>
+        <v>144080767000</v>
       </c>
       <c r="F5" t="n">
-        <v>144080800000</v>
+        <v>144080767000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>147471800000</v>
+        <v>147471792000</v>
       </c>
       <c r="D6" t="n">
-        <v>147471800000</v>
+        <v>147471792000</v>
       </c>
       <c r="E6" t="n">
-        <v>147471800000</v>
+        <v>147471792000</v>
       </c>
       <c r="F6" t="n">
-        <v>147471800000</v>
+        <v>147471792000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>151110600000</v>
       </c>
       <c r="E7" t="n">
-        <v>151110600000</v>
+        <v>151110561000</v>
       </c>
       <c r="F7" t="n">
-        <v>151110600000</v>
+        <v>151110561000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>154073600000</v>
+        <v>154073607000</v>
       </c>
       <c r="D8" t="n">
-        <v>154073600000</v>
+        <v>154073607000</v>
       </c>
       <c r="E8" t="n">
-        <v>154073600000</v>
+        <v>154073607000</v>
       </c>
       <c r="F8" t="n">
-        <v>154073600000</v>
+        <v>154073607000</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>160056300000</v>
+        <v>160056307000</v>
       </c>
       <c r="D9" t="n">
-        <v>160056300000</v>
+        <v>160056307000</v>
       </c>
       <c r="E9" t="n">
-        <v>160056300000</v>
+        <v>160056307000</v>
       </c>
       <c r="F9" t="n">
-        <v>160056300000</v>
+        <v>160056307000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>162082200000</v>
       </c>
       <c r="D10" t="n">
-        <v>162082200000</v>
+        <v>162082221000</v>
       </c>
       <c r="E10" t="n">
         <v>162082200000</v>
       </c>
       <c r="F10" t="n">
-        <v>162082200000</v>
+        <v>162082221000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>164710200000</v>
+        <v>164710229000</v>
       </c>
       <c r="D11" t="n">
-        <v>164710200000</v>
+        <v>164710229000</v>
       </c>
       <c r="E11" t="n">
-        <v>164710200000</v>
+        <v>164710229000</v>
       </c>
       <c r="F11" t="n">
-        <v>164710200000</v>
+        <v>164710229000</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>169848800000</v>
+        <v>169848847000</v>
       </c>
       <c r="D12" t="n">
-        <v>169848800000</v>
+        <v>169848847000</v>
       </c>
       <c r="E12" t="n">
-        <v>169848800000</v>
+        <v>169848847000</v>
       </c>
       <c r="F12" t="n">
-        <v>169848800000</v>
+        <v>169848847000</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>173093800000</v>
+        <v>173093794000</v>
       </c>
       <c r="D13" t="n">
-        <v>173093800000</v>
+        <v>173093794000</v>
       </c>
       <c r="E13" t="n">
-        <v>173093800000</v>
+        <v>173093794000</v>
       </c>
       <c r="F13" t="n">
-        <v>173093800000</v>
+        <v>173093794000</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>179378100000</v>
+        <v>179378106000</v>
       </c>
       <c r="D14" t="n">
-        <v>179378100000</v>
+        <v>179378106000</v>
       </c>
       <c r="E14" t="n">
-        <v>179378100000</v>
+        <v>179378106000</v>
       </c>
       <c r="F14" t="n">
-        <v>179378100000</v>
+        <v>179378106000</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>177942600000</v>
       </c>
       <c r="E15" t="n">
-        <v>177942600000</v>
+        <v>177942578000</v>
       </c>
       <c r="F15" t="n">
-        <v>177942600000</v>
+        <v>177942578000</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>180545200000</v>
+        <v>180545239000</v>
       </c>
       <c r="D16" t="n">
-        <v>180545200000</v>
+        <v>180545239000</v>
       </c>
       <c r="E16" t="n">
-        <v>180545200000</v>
+        <v>180545239000</v>
       </c>
       <c r="F16" t="n">
-        <v>180545200000</v>
+        <v>180545239000</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>182904300000</v>
+        <v>182904341000</v>
       </c>
       <c r="D17" t="n">
-        <v>182904300000</v>
+        <v>182904341000</v>
       </c>
       <c r="E17" t="n">
-        <v>182904300000</v>
+        <v>182904341000</v>
       </c>
       <c r="F17" t="n">
-        <v>182904300000</v>
+        <v>182904341000</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -886,16 +886,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>185780900000</v>
+        <v>185780882000</v>
       </c>
       <c r="D18" t="n">
-        <v>185780900000</v>
+        <v>185780882000</v>
       </c>
       <c r="E18" t="n">
-        <v>185780900000</v>
+        <v>185780882000</v>
       </c>
       <c r="F18" t="n">
-        <v>185780900000</v>
+        <v>185780882000</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>190926800000</v>
       </c>
       <c r="E19" t="n">
-        <v>190926800000</v>
+        <v>190926763000</v>
       </c>
       <c r="F19" t="n">
-        <v>190926800000</v>
+        <v>190926763000</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>195272500000</v>
+        <v>195272472000</v>
       </c>
       <c r="D20" t="n">
-        <v>195272500000</v>
+        <v>195272472000</v>
       </c>
       <c r="E20" t="n">
-        <v>195272500000</v>
+        <v>195272472000</v>
       </c>
       <c r="F20" t="n">
-        <v>195272500000</v>
+        <v>195272472000</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>199468200000</v>
+        <v>199468249000</v>
       </c>
       <c r="D21" t="n">
-        <v>199468200000</v>
+        <v>199468249000</v>
       </c>
       <c r="E21" t="n">
-        <v>199468200000</v>
+        <v>199468249000</v>
       </c>
       <c r="F21" t="n">
-        <v>199468200000</v>
+        <v>199468249000</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>204921500000</v>
+        <v>204921487000</v>
       </c>
       <c r="D22" t="n">
-        <v>204921500000</v>
+        <v>204921487000</v>
       </c>
       <c r="E22" t="n">
-        <v>204921500000</v>
+        <v>204921487000</v>
       </c>
       <c r="F22" t="n">
-        <v>204921500000</v>
+        <v>204921487000</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>206446600000</v>
+        <v>206446635000</v>
       </c>
       <c r="D23" t="n">
-        <v>206446600000</v>
+        <v>206446635000</v>
       </c>
       <c r="E23" t="n">
-        <v>206446600000</v>
+        <v>206446635000</v>
       </c>
       <c r="F23" t="n">
-        <v>206446600000</v>
+        <v>206446635000</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>207413300000</v>
       </c>
       <c r="D24" t="n">
-        <v>207413300000</v>
+        <v>207413340000</v>
       </c>
       <c r="E24" t="n">
         <v>207413300000</v>
       </c>
       <c r="F24" t="n">
-        <v>207413300000</v>
+        <v>207413340000</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>210561500000</v>
+        <v>210561453000</v>
       </c>
       <c r="D25" t="n">
-        <v>210561500000</v>
+        <v>210561453000</v>
       </c>
       <c r="E25" t="n">
-        <v>210561500000</v>
+        <v>210561453000</v>
       </c>
       <c r="F25" t="n">
-        <v>210561500000</v>
+        <v>210561453000</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>223678100000</v>
+        <v>223678101000</v>
       </c>
       <c r="D26" t="n">
-        <v>223678100000</v>
+        <v>223678101000</v>
       </c>
       <c r="E26" t="n">
-        <v>223678100000</v>
+        <v>223678101000</v>
       </c>
       <c r="F26" t="n">
-        <v>223678100000</v>
+        <v>223678101000</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>226255600000</v>
       </c>
       <c r="E27" t="n">
-        <v>226255600000</v>
+        <v>226255598000</v>
       </c>
       <c r="F27" t="n">
-        <v>226255600000</v>
+        <v>226255598000</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>233296800000</v>
+        <v>233296783000</v>
       </c>
       <c r="D28" t="n">
-        <v>233296800000</v>
+        <v>233296783000</v>
       </c>
       <c r="E28" t="n">
-        <v>233296800000</v>
+        <v>233296783000</v>
       </c>
       <c r="F28" t="n">
-        <v>233296800000</v>
+        <v>233296783000</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>236660500000</v>
+        <v>236660450000</v>
       </c>
       <c r="D29" t="n">
-        <v>236660500000</v>
+        <v>236660450000</v>
       </c>
       <c r="E29" t="n">
-        <v>236660500000</v>
+        <v>236660450000</v>
       </c>
       <c r="F29" t="n">
-        <v>236660500000</v>
+        <v>236660450000</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>236676300000</v>
+        <v>236676311000</v>
       </c>
       <c r="D30" t="n">
-        <v>236676300000</v>
+        <v>236676311000</v>
       </c>
       <c r="E30" t="n">
-        <v>236676300000</v>
+        <v>236676311000</v>
       </c>
       <c r="F30" t="n">
-        <v>236676300000</v>
+        <v>236676311000</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>239913200000</v>
+        <v>239913167000</v>
       </c>
       <c r="D31" t="n">
-        <v>239913200000</v>
+        <v>239913167000</v>
       </c>
       <c r="E31" t="n">
-        <v>239913200000</v>
+        <v>239913167000</v>
       </c>
       <c r="F31" t="n">
-        <v>239913200000</v>
+        <v>239913167000</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>242377000000</v>
+        <v>242376978000</v>
       </c>
       <c r="D32" t="n">
-        <v>242377000000</v>
+        <v>242376978000</v>
       </c>
       <c r="E32" t="n">
-        <v>242377000000</v>
+        <v>242376978000</v>
       </c>
       <c r="F32" t="n">
-        <v>242377000000</v>
+        <v>242376978000</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>244091200000</v>
       </c>
       <c r="E33" t="n">
-        <v>244091200000</v>
+        <v>244091159000</v>
       </c>
       <c r="F33" t="n">
-        <v>244091200000</v>
+        <v>244091159000</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>247353300000</v>
+        <v>247353256000</v>
       </c>
       <c r="D34" t="n">
-        <v>247353300000</v>
+        <v>247353256000</v>
       </c>
       <c r="E34" t="n">
-        <v>247353300000</v>
+        <v>247353256000</v>
       </c>
       <c r="F34" t="n">
-        <v>247353300000</v>
+        <v>247353256000</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>252022400000</v>
+        <v>252022439000</v>
       </c>
       <c r="D35" t="n">
-        <v>252022400000</v>
+        <v>252022439000</v>
       </c>
       <c r="E35" t="n">
-        <v>252022400000</v>
+        <v>252022439000</v>
       </c>
       <c r="F35" t="n">
-        <v>252022400000</v>
+        <v>252022439000</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>256819700000</v>
       </c>
       <c r="D36" t="n">
-        <v>256819700000</v>
+        <v>256819715000</v>
       </c>
       <c r="E36" t="n">
         <v>256819700000</v>
       </c>
       <c r="F36" t="n">
-        <v>256819700000</v>
+        <v>256819715000</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>261352700000</v>
+        <v>261352729000</v>
       </c>
       <c r="D37" t="n">
-        <v>261352700000</v>
+        <v>261352729000</v>
       </c>
       <c r="E37" t="n">
-        <v>261352700000</v>
+        <v>261352729000</v>
       </c>
       <c r="F37" t="n">
-        <v>261352700000</v>
+        <v>261352729000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>268700500000</v>
+        <v>268700545000</v>
       </c>
       <c r="D38" t="n">
-        <v>268700500000</v>
+        <v>268700545000</v>
       </c>
       <c r="E38" t="n">
-        <v>268700500000</v>
+        <v>268700545000</v>
       </c>
       <c r="F38" t="n">
-        <v>268700500000</v>
+        <v>268700545000</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1411,16 +1411,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>260852600000</v>
+        <v>260852624000</v>
       </c>
       <c r="D39" t="n">
-        <v>260852600000</v>
+        <v>260852624000</v>
       </c>
       <c r="E39" t="n">
-        <v>260852600000</v>
+        <v>260852624000</v>
       </c>
       <c r="F39" t="n">
-        <v>260852600000</v>
+        <v>260852624000</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>264431900000</v>
+        <v>264431926000</v>
       </c>
       <c r="D40" t="n">
-        <v>264431900000</v>
+        <v>264431926000</v>
       </c>
       <c r="E40" t="n">
-        <v>264431900000</v>
+        <v>264431926000</v>
       </c>
       <c r="F40" t="n">
-        <v>264431900000</v>
+        <v>264431926000</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>269598100000</v>
+        <v>269598133000</v>
       </c>
       <c r="D41" t="n">
-        <v>269598100000</v>
+        <v>269598133000</v>
       </c>
       <c r="E41" t="n">
-        <v>269598100000</v>
+        <v>269598133000</v>
       </c>
       <c r="F41" t="n">
-        <v>269598100000</v>
+        <v>269598133000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>272969700000</v>
+        <v>272969659000</v>
       </c>
       <c r="D42" t="n">
-        <v>272969700000</v>
+        <v>272969659000</v>
       </c>
       <c r="E42" t="n">
-        <v>272969700000</v>
+        <v>272969659000</v>
       </c>
       <c r="F42" t="n">
-        <v>272969700000</v>
+        <v>272969659000</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>276690800000</v>
+        <v>276690830000</v>
       </c>
       <c r="D43" t="n">
-        <v>276690800000</v>
+        <v>276690830000</v>
       </c>
       <c r="E43" t="n">
-        <v>276690800000</v>
+        <v>276690830000</v>
       </c>
       <c r="F43" t="n">
-        <v>276690800000</v>
+        <v>276690830000</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>291693400000</v>
+        <v>291693383000</v>
       </c>
       <c r="D44" t="n">
-        <v>291693400000</v>
+        <v>291693383000</v>
       </c>
       <c r="E44" t="n">
-        <v>291693400000</v>
+        <v>291693383000</v>
       </c>
       <c r="F44" t="n">
-        <v>291693400000</v>
+        <v>291693383000</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>284257700000</v>
+        <v>284257695000</v>
       </c>
       <c r="D45" t="n">
-        <v>284257700000</v>
+        <v>284257695000</v>
       </c>
       <c r="E45" t="n">
-        <v>284257700000</v>
+        <v>284257695000</v>
       </c>
       <c r="F45" t="n">
-        <v>284257700000</v>
+        <v>284257695000</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>284914900000</v>
+        <v>284914891000</v>
       </c>
       <c r="D46" t="n">
-        <v>284914900000</v>
+        <v>284914891000</v>
       </c>
       <c r="E46" t="n">
-        <v>284914900000</v>
+        <v>284914891000</v>
       </c>
       <c r="F46" t="n">
-        <v>284914900000</v>
+        <v>284914891000</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>288852100000</v>
       </c>
       <c r="D47" t="n">
-        <v>288852100000</v>
+        <v>288852124000</v>
       </c>
       <c r="E47" t="n">
         <v>288852100000</v>
       </c>
       <c r="F47" t="n">
-        <v>288852100000</v>
+        <v>288852124000</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>295448100000</v>
+        <v>295448056000</v>
       </c>
       <c r="D48" t="n">
-        <v>295448100000</v>
+        <v>295448056000</v>
       </c>
       <c r="E48" t="n">
-        <v>295448100000</v>
+        <v>295448056000</v>
       </c>
       <c r="F48" t="n">
-        <v>295448100000</v>
+        <v>295448056000</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>298750000000</v>
+        <v>298749981000</v>
       </c>
       <c r="D49" t="n">
-        <v>298750000000</v>
+        <v>298749981000</v>
       </c>
       <c r="E49" t="n">
-        <v>298750000000</v>
+        <v>298749981000</v>
       </c>
       <c r="F49" t="n">
-        <v>298750000000</v>
+        <v>298749981000</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>300424100000</v>
       </c>
       <c r="D50" t="n">
-        <v>300424100000</v>
+        <v>300424137000</v>
       </c>
       <c r="E50" t="n">
         <v>300424100000</v>
       </c>
       <c r="F50" t="n">
-        <v>300424100000</v>
+        <v>300424137000</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>298976500000</v>
+        <v>298976518000</v>
       </c>
       <c r="D51" t="n">
-        <v>298976500000</v>
+        <v>298976518000</v>
       </c>
       <c r="E51" t="n">
-        <v>298976500000</v>
+        <v>298976518000</v>
       </c>
       <c r="F51" t="n">
-        <v>298976500000</v>
+        <v>298976518000</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>303598900000</v>
+        <v>303598941000</v>
       </c>
       <c r="D52" t="n">
-        <v>303598900000</v>
+        <v>303598941000</v>
       </c>
       <c r="E52" t="n">
-        <v>303598900000</v>
+        <v>303598941000</v>
       </c>
       <c r="F52" t="n">
-        <v>303598900000</v>
+        <v>303598941000</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>310319000000</v>
+        <v>310319035000</v>
       </c>
       <c r="D54" t="n">
-        <v>310319000000</v>
+        <v>310319035000</v>
       </c>
       <c r="E54" t="n">
-        <v>310319000000</v>
+        <v>310319035000</v>
       </c>
       <c r="F54" t="n">
-        <v>310319000000</v>
+        <v>310319035000</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>312736600000</v>
+        <v>312736603000</v>
       </c>
       <c r="D55" t="n">
-        <v>312736600000</v>
+        <v>312736603000</v>
       </c>
       <c r="E55" t="n">
-        <v>312736600000</v>
+        <v>312736603000</v>
       </c>
       <c r="F55" t="n">
-        <v>312736600000</v>
+        <v>312736603000</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>314724900000</v>
       </c>
       <c r="E56" t="n">
-        <v>314724900000</v>
+        <v>314724897000</v>
       </c>
       <c r="F56" t="n">
-        <v>314724900000</v>
+        <v>314724897000</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>320801300000</v>
+        <v>320801266000</v>
       </c>
       <c r="D57" t="n">
-        <v>320801300000</v>
+        <v>320801266000</v>
       </c>
       <c r="E57" t="n">
-        <v>320801300000</v>
+        <v>320801266000</v>
       </c>
       <c r="F57" t="n">
-        <v>320801300000</v>
+        <v>320801266000</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>324636100000</v>
+        <v>324636133000</v>
       </c>
       <c r="D58" t="n">
-        <v>324636100000</v>
+        <v>324636133000</v>
       </c>
       <c r="E58" t="n">
-        <v>324636100000</v>
+        <v>324636133000</v>
       </c>
       <c r="F58" t="n">
-        <v>324636100000</v>
+        <v>324636133000</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>326867500000</v>
+        <v>326867489000</v>
       </c>
       <c r="D59" t="n">
-        <v>326867500000</v>
+        <v>326867489000</v>
       </c>
       <c r="E59" t="n">
-        <v>326867500000</v>
+        <v>326867489000</v>
       </c>
       <c r="F59" t="n">
-        <v>326867500000</v>
+        <v>326867489000</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>330919500000</v>
+        <v>330919544000</v>
       </c>
       <c r="D60" t="n">
-        <v>330919500000</v>
+        <v>330919544000</v>
       </c>
       <c r="E60" t="n">
-        <v>330919500000</v>
+        <v>330919544000</v>
       </c>
       <c r="F60" t="n">
-        <v>330919500000</v>
+        <v>330919544000</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>322359700000</v>
+        <v>322359738000</v>
       </c>
       <c r="D61" t="n">
-        <v>322359700000</v>
+        <v>322359738000</v>
       </c>
       <c r="E61" t="n">
-        <v>322359700000</v>
+        <v>322359738000</v>
       </c>
       <c r="F61" t="n">
-        <v>322359700000</v>
+        <v>322359738000</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>329469100000</v>
+        <v>329469146000</v>
       </c>
       <c r="D62" t="n">
-        <v>329469100000</v>
+        <v>329469146000</v>
       </c>
       <c r="E62" t="n">
-        <v>329469100000</v>
+        <v>329469146000</v>
       </c>
       <c r="F62" t="n">
-        <v>329469100000</v>
+        <v>329469146000</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>323454200000</v>
+        <v>323454189000</v>
       </c>
       <c r="D63" t="n">
-        <v>323454200000</v>
+        <v>323454189000</v>
       </c>
       <c r="E63" t="n">
-        <v>323454200000</v>
+        <v>323454189000</v>
       </c>
       <c r="F63" t="n">
-        <v>323454200000</v>
+        <v>323454189000</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>326183500000</v>
+        <v>326183539000</v>
       </c>
       <c r="D64" t="n">
-        <v>326183500000</v>
+        <v>326183539000</v>
       </c>
       <c r="E64" t="n">
-        <v>326183500000</v>
+        <v>326183539000</v>
       </c>
       <c r="F64" t="n">
-        <v>326183500000</v>
+        <v>326183539000</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>320959400000</v>
       </c>
       <c r="E65" t="n">
-        <v>320959400000</v>
+        <v>320959393000</v>
       </c>
       <c r="F65" t="n">
-        <v>320959400000</v>
+        <v>320959393000</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>319709600000</v>
+        <v>319709617000</v>
       </c>
       <c r="D66" t="n">
-        <v>319709600000</v>
+        <v>319709617000</v>
       </c>
       <c r="E66" t="n">
-        <v>319709600000</v>
+        <v>319709617000</v>
       </c>
       <c r="F66" t="n">
-        <v>319709600000</v>
+        <v>319709617000</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>324489500000</v>
+        <v>324489529000</v>
       </c>
       <c r="D67" t="n">
-        <v>324489500000</v>
+        <v>324489529000</v>
       </c>
       <c r="E67" t="n">
-        <v>324489500000</v>
+        <v>324489529000</v>
       </c>
       <c r="F67" t="n">
-        <v>324489500000</v>
+        <v>324489529000</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>324586700000</v>
+        <v>324586696000</v>
       </c>
       <c r="D68" t="n">
-        <v>324586700000</v>
+        <v>324586696000</v>
       </c>
       <c r="E68" t="n">
-        <v>324586700000</v>
+        <v>324586696000</v>
       </c>
       <c r="F68" t="n">
-        <v>324586700000</v>
+        <v>324586696000</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>327167100000</v>
+        <v>327167081000</v>
       </c>
       <c r="D69" t="n">
-        <v>327167100000</v>
+        <v>327167081000</v>
       </c>
       <c r="E69" t="n">
-        <v>327167100000</v>
+        <v>327167081000</v>
       </c>
       <c r="F69" t="n">
-        <v>327167100000</v>
+        <v>327167081000</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2189,13 +2189,13 @@
         <v>326017500000</v>
       </c>
       <c r="D70" t="n">
-        <v>326017500000</v>
+        <v>326017515000</v>
       </c>
       <c r="E70" t="n">
         <v>326017500000</v>
       </c>
       <c r="F70" t="n">
-        <v>326017500000</v>
+        <v>326017515000</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>324017300000</v>
+        <v>324017337000</v>
       </c>
       <c r="D71" t="n">
-        <v>324017300000</v>
+        <v>324017337000</v>
       </c>
       <c r="E71" t="n">
-        <v>324017300000</v>
+        <v>324017337000</v>
       </c>
       <c r="F71" t="n">
-        <v>324017300000</v>
+        <v>324017337000</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>324620500000</v>
+        <v>324620533000</v>
       </c>
       <c r="D72" t="n">
-        <v>324620500000</v>
+        <v>324620533000</v>
       </c>
       <c r="E72" t="n">
-        <v>324620500000</v>
+        <v>324620533000</v>
       </c>
       <c r="F72" t="n">
-        <v>324620500000</v>
+        <v>324620533000</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>321562600000</v>
       </c>
       <c r="E73" t="n">
-        <v>321562600000</v>
+        <v>321562565000</v>
       </c>
       <c r="F73" t="n">
-        <v>321562600000</v>
+        <v>321562565000</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>324346400000</v>
+        <v>324346430000</v>
       </c>
       <c r="D74" t="n">
-        <v>324346400000</v>
+        <v>324346430000</v>
       </c>
       <c r="E74" t="n">
-        <v>324346400000</v>
+        <v>324346430000</v>
       </c>
       <c r="F74" t="n">
-        <v>324346400000</v>
+        <v>324346430000</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>319758500000</v>
+        <v>319758534000</v>
       </c>
       <c r="D75" t="n">
-        <v>319758500000</v>
+        <v>319758534000</v>
       </c>
       <c r="E75" t="n">
-        <v>319758500000</v>
+        <v>319758534000</v>
       </c>
       <c r="F75" t="n">
-        <v>319758500000</v>
+        <v>319758534000</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2336,16 +2336,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>323057000000</v>
+        <v>323056954000</v>
       </c>
       <c r="D76" t="n">
-        <v>323057000000</v>
+        <v>323056954000</v>
       </c>
       <c r="E76" t="n">
-        <v>323057000000</v>
+        <v>323056954000</v>
       </c>
       <c r="F76" t="n">
-        <v>323057000000</v>
+        <v>323056954000</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2361,16 +2361,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>322637900000</v>
+        <v>322637850000</v>
       </c>
       <c r="D77" t="n">
-        <v>322637900000</v>
+        <v>322637850000</v>
       </c>
       <c r="E77" t="n">
-        <v>322637900000</v>
+        <v>322637850000</v>
       </c>
       <c r="F77" t="n">
-        <v>322637900000</v>
+        <v>322637850000</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>321985000000</v>
+        <v>321984990000</v>
       </c>
       <c r="D78" t="n">
-        <v>321985000000</v>
+        <v>321984990000</v>
       </c>
       <c r="E78" t="n">
-        <v>321985000000</v>
+        <v>321984990000</v>
       </c>
       <c r="F78" t="n">
-        <v>321985000000</v>
+        <v>321984990000</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>325064700000</v>
       </c>
       <c r="E79" t="n">
-        <v>325064700000</v>
+        <v>325064664000</v>
       </c>
       <c r="F79" t="n">
-        <v>325064700000</v>
+        <v>325064664000</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>327733100000</v>
+        <v>327733066000</v>
       </c>
       <c r="D80" t="n">
-        <v>327733100000</v>
+        <v>327733066000</v>
       </c>
       <c r="E80" t="n">
-        <v>327733100000</v>
+        <v>327733066000</v>
       </c>
       <c r="F80" t="n">
-        <v>327733100000</v>
+        <v>327733066000</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>327958000000</v>
+        <v>327958022000</v>
       </c>
       <c r="D81" t="n">
-        <v>327958000000</v>
+        <v>327958022000</v>
       </c>
       <c r="E81" t="n">
-        <v>327958000000</v>
+        <v>327958022000</v>
       </c>
       <c r="F81" t="n">
-        <v>327958000000</v>
+        <v>327958022000</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>329714100000</v>
       </c>
       <c r="E82" t="n">
-        <v>329714100000</v>
+        <v>329714070000</v>
       </c>
       <c r="F82" t="n">
-        <v>329714100000</v>
+        <v>329714070000</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>331850400000</v>
+        <v>331850367000</v>
       </c>
       <c r="D83" t="n">
-        <v>331850400000</v>
+        <v>331850367000</v>
       </c>
       <c r="E83" t="n">
-        <v>331850400000</v>
+        <v>331850367000</v>
       </c>
       <c r="F83" t="n">
-        <v>331850400000</v>
+        <v>331850367000</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>337353300000</v>
+        <v>337353334000</v>
       </c>
       <c r="D84" t="n">
-        <v>337353300000</v>
+        <v>337353334000</v>
       </c>
       <c r="E84" t="n">
-        <v>337353300000</v>
+        <v>337353334000</v>
       </c>
       <c r="F84" t="n">
-        <v>337353300000</v>
+        <v>337353334000</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>339297800000</v>
+        <v>339297820000</v>
       </c>
       <c r="D85" t="n">
-        <v>339297800000</v>
+        <v>339297820000</v>
       </c>
       <c r="E85" t="n">
-        <v>339297800000</v>
+        <v>339297820000</v>
       </c>
       <c r="F85" t="n">
-        <v>339297800000</v>
+        <v>339297820000</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2586,16 +2586,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>342860200000</v>
+        <v>342860220000</v>
       </c>
       <c r="D86" t="n">
-        <v>342860200000</v>
+        <v>342860220000</v>
       </c>
       <c r="E86" t="n">
-        <v>342860200000</v>
+        <v>342860220000</v>
       </c>
       <c r="F86" t="n">
-        <v>342860200000</v>
+        <v>342860220000</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>336936000000</v>
       </c>
       <c r="E87" t="n">
-        <v>336936000000</v>
+        <v>336935975000</v>
       </c>
       <c r="F87" t="n">
-        <v>336936000000</v>
+        <v>336935975000</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>340271200000</v>
+        <v>340271244000</v>
       </c>
       <c r="D88" t="n">
-        <v>340271200000</v>
+        <v>340271244000</v>
       </c>
       <c r="E88" t="n">
-        <v>340271200000</v>
+        <v>340271244000</v>
       </c>
       <c r="F88" t="n">
-        <v>340271200000</v>
+        <v>340271244000</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>342096500000</v>
+        <v>342096455000</v>
       </c>
       <c r="D89" t="n">
-        <v>342096500000</v>
+        <v>342096455000</v>
       </c>
       <c r="E89" t="n">
-        <v>342096500000</v>
+        <v>342096455000</v>
       </c>
       <c r="F89" t="n">
-        <v>342096500000</v>
+        <v>342096455000</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2686,16 +2686,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>350781300000</v>
+        <v>350781270000</v>
       </c>
       <c r="D90" t="n">
-        <v>350781300000</v>
+        <v>350781270000</v>
       </c>
       <c r="E90" t="n">
-        <v>350781300000</v>
+        <v>350781270000</v>
       </c>
       <c r="F90" t="n">
-        <v>350781300000</v>
+        <v>350781270000</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2711,16 +2711,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>346624700000</v>
+        <v>346624725000</v>
       </c>
       <c r="D91" t="n">
-        <v>346624700000</v>
+        <v>346624725000</v>
       </c>
       <c r="E91" t="n">
-        <v>346624700000</v>
+        <v>346624725000</v>
       </c>
       <c r="F91" t="n">
-        <v>346624700000</v>
+        <v>346624725000</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>350294500000</v>
+        <v>350294502000</v>
       </c>
       <c r="D92" t="n">
-        <v>350294500000</v>
+        <v>350294502000</v>
       </c>
       <c r="E92" t="n">
-        <v>350294500000</v>
+        <v>350294502000</v>
       </c>
       <c r="F92" t="n">
-        <v>350294500000</v>
+        <v>350294502000</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>349192600000</v>
       </c>
       <c r="D93" t="n">
-        <v>349192600000</v>
+        <v>349192627000</v>
       </c>
       <c r="E93" t="n">
         <v>349192600000</v>
       </c>
       <c r="F93" t="n">
-        <v>349192600000</v>
+        <v>349192627000</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>353147200000</v>
+        <v>353147170000</v>
       </c>
       <c r="D94" t="n">
-        <v>353147200000</v>
+        <v>353147170000</v>
       </c>
       <c r="E94" t="n">
-        <v>353147200000</v>
+        <v>353147170000</v>
       </c>
       <c r="F94" t="n">
-        <v>353147200000</v>
+        <v>353147170000</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>352678300000</v>
+        <v>352678316000</v>
       </c>
       <c r="D95" t="n">
-        <v>352678300000</v>
+        <v>352678316000</v>
       </c>
       <c r="E95" t="n">
-        <v>352678300000</v>
+        <v>352678316000</v>
       </c>
       <c r="F95" t="n">
-        <v>352678300000</v>
+        <v>352678316000</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>372303200000</v>
       </c>
       <c r="D96" t="n">
-        <v>372303200000</v>
+        <v>372303238000</v>
       </c>
       <c r="E96" t="n">
         <v>372303200000</v>
       </c>
       <c r="F96" t="n">
-        <v>372303200000</v>
+        <v>372303238000</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>359231300000</v>
+        <v>359231343000</v>
       </c>
       <c r="D97" t="n">
-        <v>359231300000</v>
+        <v>359231343000</v>
       </c>
       <c r="E97" t="n">
-        <v>359231300000</v>
+        <v>359231343000</v>
       </c>
       <c r="F97" t="n">
-        <v>359231300000</v>
+        <v>359231343000</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2886,16 +2886,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>368714100000</v>
+        <v>368714137000</v>
       </c>
       <c r="D98" t="n">
-        <v>368714100000</v>
+        <v>368714137000</v>
       </c>
       <c r="E98" t="n">
-        <v>368714100000</v>
+        <v>368714137000</v>
       </c>
       <c r="F98" t="n">
-        <v>368714100000</v>
+        <v>368714137000</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>366417000000</v>
+        <v>366416955000</v>
       </c>
       <c r="D99" t="n">
-        <v>366417000000</v>
+        <v>366416955000</v>
       </c>
       <c r="E99" t="n">
-        <v>366417000000</v>
+        <v>366416955000</v>
       </c>
       <c r="F99" t="n">
-        <v>366417000000</v>
+        <v>366416955000</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2936,16 +2936,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>371693600000</v>
+        <v>371693577000</v>
       </c>
       <c r="D100" t="n">
-        <v>371693600000</v>
+        <v>371693577000</v>
       </c>
       <c r="E100" t="n">
-        <v>371693600000</v>
+        <v>371693577000</v>
       </c>
       <c r="F100" t="n">
-        <v>371693600000</v>
+        <v>371693577000</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>380308300000</v>
+        <v>380308273000</v>
       </c>
       <c r="D101" t="n">
-        <v>380308300000</v>
+        <v>380308273000</v>
       </c>
       <c r="E101" t="n">
-        <v>380308300000</v>
+        <v>380308273000</v>
       </c>
       <c r="F101" t="n">
-        <v>380308300000</v>
+        <v>380308273000</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>385623900000</v>
       </c>
       <c r="D102" t="n">
-        <v>385623900000</v>
+        <v>385623925000</v>
       </c>
       <c r="E102" t="n">
         <v>385623900000</v>
       </c>
       <c r="F102" t="n">
-        <v>385623900000</v>
+        <v>385623925000</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>392123000000</v>
+        <v>392122961000</v>
       </c>
       <c r="D103" t="n">
-        <v>392123000000</v>
+        <v>392122961000</v>
       </c>
       <c r="E103" t="n">
-        <v>392123000000</v>
+        <v>392122961000</v>
       </c>
       <c r="F103" t="n">
-        <v>392123000000</v>
+        <v>392122961000</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3036,16 +3036,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>390159900000</v>
+        <v>390159927000</v>
       </c>
       <c r="D104" t="n">
-        <v>390159900000</v>
+        <v>390159927000</v>
       </c>
       <c r="E104" t="n">
-        <v>390159900000</v>
+        <v>390159927000</v>
       </c>
       <c r="F104" t="n">
-        <v>390159900000</v>
+        <v>390159927000</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>391150400000</v>
       </c>
       <c r="D105" t="n">
-        <v>391150400000</v>
+        <v>391150422000</v>
       </c>
       <c r="E105" t="n">
         <v>391150400000</v>
       </c>
       <c r="F105" t="n">
-        <v>391150400000</v>
+        <v>391150422000</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>397421800000</v>
+        <v>397421797000</v>
       </c>
       <c r="D106" t="n">
-        <v>397421800000</v>
+        <v>397421797000</v>
       </c>
       <c r="E106" t="n">
-        <v>397421800000</v>
+        <v>397421797000</v>
       </c>
       <c r="F106" t="n">
-        <v>397421800000</v>
+        <v>397421797000</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>401581200000</v>
+        <v>401581220000</v>
       </c>
       <c r="D107" t="n">
-        <v>401581200000</v>
+        <v>401581220000</v>
       </c>
       <c r="E107" t="n">
-        <v>401581200000</v>
+        <v>401581220000</v>
       </c>
       <c r="F107" t="n">
-        <v>401581200000</v>
+        <v>401581220000</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3136,16 +3136,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>407006500000</v>
+        <v>407006481000</v>
       </c>
       <c r="D108" t="n">
-        <v>407006500000</v>
+        <v>407006481000</v>
       </c>
       <c r="E108" t="n">
-        <v>407006500000</v>
+        <v>407006481000</v>
       </c>
       <c r="F108" t="n">
-        <v>407006500000</v>
+        <v>407006481000</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>408782100000</v>
+        <v>408782113000</v>
       </c>
       <c r="D109" t="n">
-        <v>408782100000</v>
+        <v>408782113000</v>
       </c>
       <c r="E109" t="n">
-        <v>408782100000</v>
+        <v>408782113000</v>
       </c>
       <c r="F109" t="n">
-        <v>408782100000</v>
+        <v>408782113000</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>415163500000</v>
       </c>
       <c r="D110" t="n">
-        <v>415163500000</v>
+        <v>415163519000</v>
       </c>
       <c r="E110" t="n">
         <v>415163500000</v>
       </c>
       <c r="F110" t="n">
-        <v>415163500000</v>
+        <v>415163519000</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>410120200000</v>
+        <v>410120206000</v>
       </c>
       <c r="D111" t="n">
-        <v>410120200000</v>
+        <v>410120206000</v>
       </c>
       <c r="E111" t="n">
-        <v>410120200000</v>
+        <v>410120206000</v>
       </c>
       <c r="F111" t="n">
-        <v>410120200000</v>
+        <v>410120206000</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>417062000000</v>
+        <v>417061959000</v>
       </c>
       <c r="D112" t="n">
-        <v>417062000000</v>
+        <v>417061959000</v>
       </c>
       <c r="E112" t="n">
-        <v>417062000000</v>
+        <v>417061959000</v>
       </c>
       <c r="F112" t="n">
-        <v>417062000000</v>
+        <v>417061959000</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>421150500000</v>
+        <v>421150531000</v>
       </c>
       <c r="D113" t="n">
-        <v>421150500000</v>
+        <v>421150531000</v>
       </c>
       <c r="E113" t="n">
-        <v>421150500000</v>
+        <v>421150531000</v>
       </c>
       <c r="F113" t="n">
-        <v>421150500000</v>
+        <v>421150531000</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>425273800000</v>
+        <v>425273793000</v>
       </c>
       <c r="D114" t="n">
-        <v>425273800000</v>
+        <v>425273793000</v>
       </c>
       <c r="E114" t="n">
-        <v>425273800000</v>
+        <v>425273793000</v>
       </c>
       <c r="F114" t="n">
-        <v>425273800000</v>
+        <v>425273793000</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>433601500000</v>
+        <v>433601452000</v>
       </c>
       <c r="D115" t="n">
-        <v>433601500000</v>
+        <v>433601452000</v>
       </c>
       <c r="E115" t="n">
-        <v>433601500000</v>
+        <v>433601452000</v>
       </c>
       <c r="F115" t="n">
-        <v>433601500000</v>
+        <v>433601452000</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>440505200000</v>
+        <v>440505178000</v>
       </c>
       <c r="D116" t="n">
-        <v>440505200000</v>
+        <v>440505178000</v>
       </c>
       <c r="E116" t="n">
-        <v>440505200000</v>
+        <v>440505178000</v>
       </c>
       <c r="F116" t="n">
-        <v>440505200000</v>
+        <v>440505178000</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3361,16 +3361,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>442798100000</v>
+        <v>442798058000</v>
       </c>
       <c r="D117" t="n">
-        <v>442798100000</v>
+        <v>442798058000</v>
       </c>
       <c r="E117" t="n">
-        <v>442798100000</v>
+        <v>442798058000</v>
       </c>
       <c r="F117" t="n">
-        <v>442798100000</v>
+        <v>442798058000</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3386,16 +3386,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>449012000000</v>
+        <v>449012041000</v>
       </c>
       <c r="D118" t="n">
-        <v>449012000000</v>
+        <v>449012041000</v>
       </c>
       <c r="E118" t="n">
-        <v>449012000000</v>
+        <v>449012041000</v>
       </c>
       <c r="F118" t="n">
-        <v>449012000000</v>
+        <v>449012041000</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3414,13 +3414,13 @@
         <v>454205800000</v>
       </c>
       <c r="D119" t="n">
-        <v>454205800000</v>
+        <v>454205828000</v>
       </c>
       <c r="E119" t="n">
         <v>454205800000</v>
       </c>
       <c r="F119" t="n">
-        <v>454205800000</v>
+        <v>454205828000</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>459026700000</v>
+        <v>459026730000</v>
       </c>
       <c r="D120" t="n">
-        <v>459026700000</v>
+        <v>459026730000</v>
       </c>
       <c r="E120" t="n">
-        <v>459026700000</v>
+        <v>459026730000</v>
       </c>
       <c r="F120" t="n">
-        <v>459026700000</v>
+        <v>459026730000</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>466057000000</v>
+        <v>466057044000</v>
       </c>
       <c r="D121" t="n">
-        <v>466057000000</v>
+        <v>466057044000</v>
       </c>
       <c r="E121" t="n">
-        <v>466057000000</v>
+        <v>466057044000</v>
       </c>
       <c r="F121" t="n">
-        <v>466057000000</v>
+        <v>466057044000</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>481210500000</v>
       </c>
       <c r="E122" t="n">
-        <v>481210500000</v>
+        <v>481210466000</v>
       </c>
       <c r="F122" t="n">
-        <v>481210500000</v>
+        <v>481210466000</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>488060800000</v>
+        <v>488060833000</v>
       </c>
       <c r="D123" t="n">
-        <v>488060800000</v>
+        <v>488060833000</v>
       </c>
       <c r="E123" t="n">
-        <v>488060800000</v>
+        <v>488060833000</v>
       </c>
       <c r="F123" t="n">
-        <v>488060800000</v>
+        <v>488060833000</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>495376500000</v>
+        <v>495376461000</v>
       </c>
       <c r="D124" t="n">
-        <v>495376500000</v>
+        <v>495376461000</v>
       </c>
       <c r="E124" t="n">
-        <v>495376500000</v>
+        <v>495376461000</v>
       </c>
       <c r="F124" t="n">
-        <v>495376500000</v>
+        <v>495376461000</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3564,13 +3564,13 @@
         <v>497294700000</v>
       </c>
       <c r="D125" t="n">
-        <v>497294700000</v>
+        <v>497294745000</v>
       </c>
       <c r="E125" t="n">
         <v>497294700000</v>
       </c>
       <c r="F125" t="n">
-        <v>497294700000</v>
+        <v>497294745000</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>502083300000</v>
+        <v>502083302000</v>
       </c>
       <c r="D126" t="n">
-        <v>502083300000</v>
+        <v>502083302000</v>
       </c>
       <c r="E126" t="n">
-        <v>502083300000</v>
+        <v>502083302000</v>
       </c>
       <c r="F126" t="n">
-        <v>502083300000</v>
+        <v>502083302000</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3611,16 +3611,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>504800500000</v>
+        <v>504800537000</v>
       </c>
       <c r="D127" t="n">
-        <v>504800500000</v>
+        <v>504800537000</v>
       </c>
       <c r="E127" t="n">
-        <v>504800500000</v>
+        <v>504800537000</v>
       </c>
       <c r="F127" t="n">
-        <v>504800500000</v>
+        <v>504800537000</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>506807000000</v>
       </c>
       <c r="E128" t="n">
-        <v>506807000000</v>
+        <v>506806993000</v>
       </c>
       <c r="F128" t="n">
-        <v>506807000000</v>
+        <v>506806993000</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>511540900000</v>
+        <v>511540906000</v>
       </c>
       <c r="D129" t="n">
-        <v>511540900000</v>
+        <v>511540906000</v>
       </c>
       <c r="E129" t="n">
-        <v>511540900000</v>
+        <v>511540906000</v>
       </c>
       <c r="F129" t="n">
-        <v>511540900000</v>
+        <v>511540906000</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3686,16 +3686,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>521751600000</v>
+        <v>521751550000</v>
       </c>
       <c r="D130" t="n">
-        <v>521751600000</v>
+        <v>521751550000</v>
       </c>
       <c r="E130" t="n">
-        <v>521751600000</v>
+        <v>521751550000</v>
       </c>
       <c r="F130" t="n">
-        <v>521751600000</v>
+        <v>521751550000</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>523463000000</v>
+        <v>523462956000</v>
       </c>
       <c r="D131" t="n">
-        <v>523463000000</v>
+        <v>523462956000</v>
       </c>
       <c r="E131" t="n">
-        <v>523463000000</v>
+        <v>523462956000</v>
       </c>
       <c r="F131" t="n">
-        <v>523463000000</v>
+        <v>523462956000</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>527874000000</v>
+        <v>527874019000</v>
       </c>
       <c r="D132" t="n">
-        <v>527874000000</v>
+        <v>527874019000</v>
       </c>
       <c r="E132" t="n">
-        <v>527874000000</v>
+        <v>527874019000</v>
       </c>
       <c r="F132" t="n">
-        <v>527874000000</v>
+        <v>527874019000</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>536088900000</v>
+        <v>536088887000</v>
       </c>
       <c r="D133" t="n">
-        <v>536088900000</v>
+        <v>536088887000</v>
       </c>
       <c r="E133" t="n">
-        <v>536088900000</v>
+        <v>536088887000</v>
       </c>
       <c r="F133" t="n">
-        <v>536088900000</v>
+        <v>536088887000</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>549344300000.0001</v>
+        <v>549344290999.9999</v>
       </c>
       <c r="D134" t="n">
-        <v>549344300000.0001</v>
+        <v>549344290999.9999</v>
       </c>
       <c r="E134" t="n">
-        <v>549344300000.0001</v>
+        <v>549344290999.9999</v>
       </c>
       <c r="F134" t="n">
-        <v>549344300000.0001</v>
+        <v>549344290999.9999</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>556007700000</v>
+        <v>556007732000</v>
       </c>
       <c r="D135" t="n">
-        <v>556007700000</v>
+        <v>556007732000</v>
       </c>
       <c r="E135" t="n">
-        <v>556007700000</v>
+        <v>556007732000</v>
       </c>
       <c r="F135" t="n">
-        <v>556007700000</v>
+        <v>556007732000</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>565582000000</v>
+        <v>565581997000</v>
       </c>
       <c r="D136" t="n">
-        <v>565582000000</v>
+        <v>565581997000</v>
       </c>
       <c r="E136" t="n">
-        <v>565582000000</v>
+        <v>565581997000</v>
       </c>
       <c r="F136" t="n">
-        <v>565582000000</v>
+        <v>565581997000</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>570176500000</v>
+        <v>570176454000</v>
       </c>
       <c r="D137" t="n">
-        <v>570176500000</v>
+        <v>570176454000</v>
       </c>
       <c r="E137" t="n">
-        <v>570176500000</v>
+        <v>570176454000</v>
       </c>
       <c r="F137" t="n">
-        <v>570176500000</v>
+        <v>570176454000</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>581982700000</v>
+        <v>581982673000</v>
       </c>
       <c r="D138" t="n">
-        <v>581982700000</v>
+        <v>581982673000</v>
       </c>
       <c r="E138" t="n">
-        <v>581982700000</v>
+        <v>581982673000</v>
       </c>
       <c r="F138" t="n">
-        <v>581982700000</v>
+        <v>581982673000</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
         <v>589308500000</v>
       </c>
       <c r="E139" t="n">
-        <v>589308500000</v>
+        <v>589308477000</v>
       </c>
       <c r="F139" t="n">
-        <v>589308500000</v>
+        <v>589308477000</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>595558200000</v>
+        <v>595558242000</v>
       </c>
       <c r="D140" t="n">
-        <v>595558200000</v>
+        <v>595558242000</v>
       </c>
       <c r="E140" t="n">
-        <v>595558200000</v>
+        <v>595558242000</v>
       </c>
       <c r="F140" t="n">
-        <v>595558200000</v>
+        <v>595558242000</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>605561100000</v>
+        <v>605561126000</v>
       </c>
       <c r="D141" t="n">
-        <v>605561100000</v>
+        <v>605561126000</v>
       </c>
       <c r="E141" t="n">
-        <v>605561100000</v>
+        <v>605561126000</v>
       </c>
       <c r="F141" t="n">
-        <v>605561100000</v>
+        <v>605561126000</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>614791000000</v>
       </c>
       <c r="D142" t="n">
-        <v>614791000000</v>
+        <v>614791029000</v>
       </c>
       <c r="E142" t="n">
         <v>614791000000</v>
       </c>
       <c r="F142" t="n">
-        <v>614791000000</v>
+        <v>614791029000</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>627470900000</v>
+        <v>627470869000</v>
       </c>
       <c r="D144" t="n">
-        <v>627470900000</v>
+        <v>627470869000</v>
       </c>
       <c r="E144" t="n">
-        <v>627470900000</v>
+        <v>627470869000</v>
       </c>
       <c r="F144" t="n">
-        <v>627470900000</v>
+        <v>627470869000</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>639993500000</v>
+        <v>639993542000</v>
       </c>
       <c r="D145" t="n">
-        <v>639993500000</v>
+        <v>639993542000</v>
       </c>
       <c r="E145" t="n">
-        <v>639993500000</v>
+        <v>639993542000</v>
       </c>
       <c r="F145" t="n">
-        <v>639993500000</v>
+        <v>639993542000</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>660239900000</v>
+        <v>660239876000</v>
       </c>
       <c r="D146" t="n">
-        <v>660239900000</v>
+        <v>660239876000</v>
       </c>
       <c r="E146" t="n">
-        <v>660239900000</v>
+        <v>660239876000</v>
       </c>
       <c r="F146" t="n">
-        <v>660239900000</v>
+        <v>660239876000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>663028000000</v>
       </c>
       <c r="E147" t="n">
-        <v>663028000000</v>
+        <v>663027986000</v>
       </c>
       <c r="F147" t="n">
-        <v>663028000000</v>
+        <v>663027986000</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>674154700000</v>
+        <v>674154748000</v>
       </c>
       <c r="D148" t="n">
-        <v>674154700000</v>
+        <v>674154748000</v>
       </c>
       <c r="E148" t="n">
-        <v>674154700000</v>
+        <v>674154748000</v>
       </c>
       <c r="F148" t="n">
-        <v>674154700000</v>
+        <v>674154748000</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>678861300000</v>
+        <v>678861293000</v>
       </c>
       <c r="D149" t="n">
-        <v>678861300000</v>
+        <v>678861293000</v>
       </c>
       <c r="E149" t="n">
-        <v>678861300000</v>
+        <v>678861293000</v>
       </c>
       <c r="F149" t="n">
-        <v>678861300000</v>
+        <v>678861293000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>675202100000</v>
+        <v>675202149000</v>
       </c>
       <c r="D150" t="n">
-        <v>675202100000</v>
+        <v>675202149000</v>
       </c>
       <c r="E150" t="n">
-        <v>675202100000</v>
+        <v>675202149000</v>
       </c>
       <c r="F150" t="n">
-        <v>675202100000</v>
+        <v>675202149000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>680445200000</v>
       </c>
       <c r="D151" t="n">
-        <v>680445200000</v>
+        <v>680445217000</v>
       </c>
       <c r="E151" t="n">
         <v>680445200000</v>
       </c>
       <c r="F151" t="n">
-        <v>680445200000</v>
+        <v>680445217000</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>687454600000</v>
+        <v>687454585000</v>
       </c>
       <c r="D152" t="n">
-        <v>687454600000</v>
+        <v>687454585000</v>
       </c>
       <c r="E152" t="n">
-        <v>687454600000</v>
+        <v>687454585000</v>
       </c>
       <c r="F152" t="n">
-        <v>687454600000</v>
+        <v>687454585000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>682404800000</v>
+        <v>682404833000</v>
       </c>
       <c r="D153" t="n">
-        <v>682404800000</v>
+        <v>682404833000</v>
       </c>
       <c r="E153" t="n">
-        <v>682404800000</v>
+        <v>682404833000</v>
       </c>
       <c r="F153" t="n">
-        <v>682404800000</v>
+        <v>682404833000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>678889800000</v>
+        <v>678889774000</v>
       </c>
       <c r="D154" t="n">
-        <v>678889800000</v>
+        <v>678889774000</v>
       </c>
       <c r="E154" t="n">
-        <v>678889800000</v>
+        <v>678889774000</v>
       </c>
       <c r="F154" t="n">
-        <v>678889800000</v>
+        <v>678889774000</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>685513800000</v>
+        <v>685513764000</v>
       </c>
       <c r="D155" t="n">
-        <v>685513800000</v>
+        <v>685513764000</v>
       </c>
       <c r="E155" t="n">
-        <v>685513800000</v>
+        <v>685513764000</v>
       </c>
       <c r="F155" t="n">
-        <v>685513800000</v>
+        <v>685513764000</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>698940700000</v>
       </c>
       <c r="E156" t="n">
-        <v>698940700000</v>
+        <v>698940699000</v>
       </c>
       <c r="F156" t="n">
-        <v>698940700000</v>
+        <v>698940699000</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>694897400000</v>
+        <v>694897356000</v>
       </c>
       <c r="D157" t="n">
-        <v>694897400000</v>
+        <v>694897356000</v>
       </c>
       <c r="E157" t="n">
-        <v>694897400000</v>
+        <v>694897356000</v>
       </c>
       <c r="F157" t="n">
-        <v>694897400000</v>
+        <v>694897356000</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>714757800000</v>
+        <v>714757821000</v>
       </c>
       <c r="D158" t="n">
-        <v>714757800000</v>
+        <v>714757821000</v>
       </c>
       <c r="E158" t="n">
-        <v>714757800000</v>
+        <v>714757821000</v>
       </c>
       <c r="F158" t="n">
-        <v>714757800000</v>
+        <v>714757821000</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4414,13 +4414,13 @@
         <v>705346000000</v>
       </c>
       <c r="D159" t="n">
-        <v>705346000000</v>
+        <v>705346047000</v>
       </c>
       <c r="E159" t="n">
         <v>705346000000</v>
       </c>
       <c r="F159" t="n">
-        <v>705346000000</v>
+        <v>705346047000</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>711014100000</v>
+        <v>711014143000</v>
       </c>
       <c r="D160" t="n">
-        <v>711014100000</v>
+        <v>711014143000</v>
       </c>
       <c r="E160" t="n">
-        <v>711014100000</v>
+        <v>711014143000</v>
       </c>
       <c r="F160" t="n">
-        <v>711014100000</v>
+        <v>711014143000</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>712761500000</v>
+        <v>712761519000</v>
       </c>
       <c r="D161" t="n">
-        <v>712761500000</v>
+        <v>712761519000</v>
       </c>
       <c r="E161" t="n">
-        <v>712761500000</v>
+        <v>712761519000</v>
       </c>
       <c r="F161" t="n">
-        <v>712761500000</v>
+        <v>712761519000</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>713066900000</v>
+        <v>713066938000</v>
       </c>
       <c r="D162" t="n">
-        <v>713066900000</v>
+        <v>713066938000</v>
       </c>
       <c r="E162" t="n">
-        <v>713066900000</v>
+        <v>713066938000</v>
       </c>
       <c r="F162" t="n">
-        <v>713066900000</v>
+        <v>713066938000</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>730147700000</v>
+        <v>730147686000</v>
       </c>
       <c r="D163" t="n">
-        <v>730147700000</v>
+        <v>730147686000</v>
       </c>
       <c r="E163" t="n">
-        <v>730147700000</v>
+        <v>730147686000</v>
       </c>
       <c r="F163" t="n">
-        <v>730147700000</v>
+        <v>730147686000</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>736375600000</v>
+        <v>736375596000</v>
       </c>
       <c r="D164" t="n">
-        <v>736375600000</v>
+        <v>736375596000</v>
       </c>
       <c r="E164" t="n">
-        <v>736375600000</v>
+        <v>736375596000</v>
       </c>
       <c r="F164" t="n">
-        <v>736375600000</v>
+        <v>736375596000</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4564,13 +4564,13 @@
         <v>734376000000</v>
       </c>
       <c r="D165" t="n">
-        <v>734376000000</v>
+        <v>734376016000</v>
       </c>
       <c r="E165" t="n">
         <v>734376000000</v>
       </c>
       <c r="F165" t="n">
-        <v>734376000000</v>
+        <v>734376016000</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4586,16 +4586,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>739043400000</v>
+        <v>739043378000</v>
       </c>
       <c r="D166" t="n">
-        <v>739043400000</v>
+        <v>739043378000</v>
       </c>
       <c r="E166" t="n">
-        <v>739043400000</v>
+        <v>739043378000</v>
       </c>
       <c r="F166" t="n">
-        <v>739043400000</v>
+        <v>739043378000</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>744491800000</v>
+        <v>744491803000</v>
       </c>
       <c r="D167" t="n">
-        <v>744491800000</v>
+        <v>744491803000</v>
       </c>
       <c r="E167" t="n">
-        <v>744491800000</v>
+        <v>744491803000</v>
       </c>
       <c r="F167" t="n">
-        <v>744491800000</v>
+        <v>744491803000</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4639,13 +4639,13 @@
         <v>748187100000</v>
       </c>
       <c r="D168" t="n">
-        <v>748187100000</v>
+        <v>748187115000</v>
       </c>
       <c r="E168" t="n">
         <v>748187100000</v>
       </c>
       <c r="F168" t="n">
-        <v>748187100000</v>
+        <v>748187115000</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>754637700000</v>
+        <v>754637689000</v>
       </c>
       <c r="D169" t="n">
-        <v>754637700000</v>
+        <v>754637689000</v>
       </c>
       <c r="E169" t="n">
-        <v>754637700000</v>
+        <v>754637689000</v>
       </c>
       <c r="F169" t="n">
-        <v>754637700000</v>
+        <v>754637689000</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4686,16 +4686,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>774657900000</v>
+        <v>774657904000</v>
       </c>
       <c r="D170" t="n">
-        <v>774657900000</v>
+        <v>774657904000</v>
       </c>
       <c r="E170" t="n">
-        <v>774657900000</v>
+        <v>774657904000</v>
       </c>
       <c r="F170" t="n">
-        <v>774657900000</v>
+        <v>774657904000</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>761148800000</v>
+        <v>761148796000</v>
       </c>
       <c r="D171" t="n">
-        <v>761148800000</v>
+        <v>761148796000</v>
       </c>
       <c r="E171" t="n">
-        <v>761148800000</v>
+        <v>761148796000</v>
       </c>
       <c r="F171" t="n">
-        <v>761148800000</v>
+        <v>761148796000</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>768891400000</v>
+        <v>768891436000</v>
       </c>
       <c r="D172" t="n">
-        <v>768891400000</v>
+        <v>768891436000</v>
       </c>
       <c r="E172" t="n">
-        <v>768891400000</v>
+        <v>768891436000</v>
       </c>
       <c r="F172" t="n">
-        <v>768891400000</v>
+        <v>768891436000</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>792669600000</v>
+        <v>792669573000</v>
       </c>
       <c r="D173" t="n">
-        <v>792669600000</v>
+        <v>792669573000</v>
       </c>
       <c r="E173" t="n">
-        <v>792669600000</v>
+        <v>792669573000</v>
       </c>
       <c r="F173" t="n">
-        <v>792669600000</v>
+        <v>792669573000</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>779152300000</v>
       </c>
       <c r="E174" t="n">
-        <v>779152300000</v>
+        <v>779152287000</v>
       </c>
       <c r="F174" t="n">
-        <v>779152300000</v>
+        <v>779152287000</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>783468500000</v>
+        <v>783468524000</v>
       </c>
       <c r="D175" t="n">
-        <v>783468500000</v>
+        <v>783468524000</v>
       </c>
       <c r="E175" t="n">
-        <v>783468500000</v>
+        <v>783468524000</v>
       </c>
       <c r="F175" t="n">
-        <v>783468500000</v>
+        <v>783468524000</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>788125200000</v>
+        <v>788125220000</v>
       </c>
       <c r="D176" t="n">
-        <v>788125200000</v>
+        <v>788125220000</v>
       </c>
       <c r="E176" t="n">
-        <v>788125200000</v>
+        <v>788125220000</v>
       </c>
       <c r="F176" t="n">
-        <v>788125200000</v>
+        <v>788125220000</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -4867,10 +4867,10 @@
         <v>787548100000</v>
       </c>
       <c r="E177" t="n">
-        <v>787548100000</v>
+        <v>787548051000</v>
       </c>
       <c r="F177" t="n">
-        <v>787548100000</v>
+        <v>787548051000</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -4886,16 +4886,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>800229700000</v>
+        <v>800229722000</v>
       </c>
       <c r="D178" t="n">
-        <v>800229700000</v>
+        <v>800229722000</v>
       </c>
       <c r="E178" t="n">
-        <v>800229700000</v>
+        <v>800229722000</v>
       </c>
       <c r="F178" t="n">
-        <v>800229700000</v>
+        <v>800229722000</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4911,16 +4911,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>814265200000</v>
+        <v>814265155000</v>
       </c>
       <c r="D179" t="n">
-        <v>814265200000</v>
+        <v>814265155000</v>
       </c>
       <c r="E179" t="n">
-        <v>814265200000</v>
+        <v>814265155000</v>
       </c>
       <c r="F179" t="n">
-        <v>814265200000</v>
+        <v>814265155000</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>817584900000</v>
+        <v>817584867000</v>
       </c>
       <c r="D180" t="n">
-        <v>817584900000</v>
+        <v>817584867000</v>
       </c>
       <c r="E180" t="n">
-        <v>817584900000</v>
+        <v>817584867000</v>
       </c>
       <c r="F180" t="n">
-        <v>817584900000</v>
+        <v>817584867000</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>836794000000</v>
+        <v>836794031000</v>
       </c>
       <c r="D181" t="n">
-        <v>836794000000</v>
+        <v>836794031000</v>
       </c>
       <c r="E181" t="n">
-        <v>836794000000</v>
+        <v>836794031000</v>
       </c>
       <c r="F181" t="n">
-        <v>836794000000</v>
+        <v>836794031000</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4989,13 +4989,13 @@
         <v>863745500000</v>
       </c>
       <c r="D182" t="n">
-        <v>863745500000</v>
+        <v>863745521000</v>
       </c>
       <c r="E182" t="n">
         <v>863745500000</v>
       </c>
       <c r="F182" t="n">
-        <v>863745500000</v>
+        <v>863745521000</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>855202900000</v>
+        <v>855202858000</v>
       </c>
       <c r="D183" t="n">
-        <v>855202900000</v>
+        <v>855202858000</v>
       </c>
       <c r="E183" t="n">
-        <v>855202900000</v>
+        <v>855202858000</v>
       </c>
       <c r="F183" t="n">
-        <v>855202900000</v>
+        <v>855202858000</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>860213900000</v>
+        <v>860213872000</v>
       </c>
       <c r="D184" t="n">
-        <v>860213900000</v>
+        <v>860213872000</v>
       </c>
       <c r="E184" t="n">
-        <v>860213900000</v>
+        <v>860213872000</v>
       </c>
       <c r="F184" t="n">
-        <v>860213900000</v>
+        <v>860213872000</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5067,10 +5067,10 @@
         <v>859995000000</v>
       </c>
       <c r="E185" t="n">
-        <v>859995000000</v>
+        <v>859994951000</v>
       </c>
       <c r="F185" t="n">
-        <v>859995000000</v>
+        <v>859994951000</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>854927200000</v>
+        <v>854927240000</v>
       </c>
       <c r="D186" t="n">
-        <v>854927200000</v>
+        <v>854927240000</v>
       </c>
       <c r="E186" t="n">
-        <v>854927200000</v>
+        <v>854927240000</v>
       </c>
       <c r="F186" t="n">
-        <v>854927200000</v>
+        <v>854927240000</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>867102000000</v>
+        <v>867102006000</v>
       </c>
       <c r="D187" t="n">
-        <v>867102000000</v>
+        <v>867102006000</v>
       </c>
       <c r="E187" t="n">
-        <v>867102000000</v>
+        <v>867102006000</v>
       </c>
       <c r="F187" t="n">
-        <v>867102000000</v>
+        <v>867102006000</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>868777900000</v>
       </c>
       <c r="E188" t="n">
-        <v>868777900000</v>
+        <v>868777851000</v>
       </c>
       <c r="F188" t="n">
-        <v>868777900000</v>
+        <v>868777851000</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5161,16 +5161,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>869059200000</v>
+        <v>869059232000</v>
       </c>
       <c r="D189" t="n">
-        <v>869059200000</v>
+        <v>869059232000</v>
       </c>
       <c r="E189" t="n">
-        <v>869059200000</v>
+        <v>869059232000</v>
       </c>
       <c r="F189" t="n">
-        <v>869059200000</v>
+        <v>869059232000</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5186,16 +5186,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>872955400000</v>
+        <v>872955403000</v>
       </c>
       <c r="D190" t="n">
-        <v>872955400000</v>
+        <v>872955403000</v>
       </c>
       <c r="E190" t="n">
-        <v>872955400000</v>
+        <v>872955403000</v>
       </c>
       <c r="F190" t="n">
-        <v>872955400000</v>
+        <v>872955403000</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>879012200000</v>
+        <v>879012171000</v>
       </c>
       <c r="D192" t="n">
-        <v>879012200000</v>
+        <v>879012171000</v>
       </c>
       <c r="E192" t="n">
-        <v>879012200000</v>
+        <v>879012171000</v>
       </c>
       <c r="F192" t="n">
-        <v>879012200000</v>
+        <v>879012171000</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>882074700000</v>
+        <v>882074719000</v>
       </c>
       <c r="D193" t="n">
-        <v>882074700000</v>
+        <v>882074719000</v>
       </c>
       <c r="E193" t="n">
-        <v>882074700000</v>
+        <v>882074719000</v>
       </c>
       <c r="F193" t="n">
-        <v>882074700000</v>
+        <v>882074719000</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>900336700000</v>
+        <v>900336731000</v>
       </c>
       <c r="D194" t="n">
-        <v>900336700000</v>
+        <v>900336731000</v>
       </c>
       <c r="E194" t="n">
-        <v>900336700000</v>
+        <v>900336731000</v>
       </c>
       <c r="F194" t="n">
-        <v>900336700000</v>
+        <v>900336731000</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>895716800000</v>
+        <v>895716818000</v>
       </c>
       <c r="D195" t="n">
-        <v>895716800000</v>
+        <v>895716818000</v>
       </c>
       <c r="E195" t="n">
-        <v>895716800000</v>
+        <v>895716818000</v>
       </c>
       <c r="F195" t="n">
-        <v>895716800000</v>
+        <v>895716818000</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>904415000000</v>
+        <v>904415031000</v>
       </c>
       <c r="D196" t="n">
-        <v>904415000000</v>
+        <v>904415031000</v>
       </c>
       <c r="E196" t="n">
-        <v>904415000000</v>
+        <v>904415031000</v>
       </c>
       <c r="F196" t="n">
-        <v>904415000000</v>
+        <v>904415031000</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5367,10 +5367,10 @@
         <v>915839400000</v>
       </c>
       <c r="E197" t="n">
-        <v>915839400000</v>
+        <v>915839384000</v>
       </c>
       <c r="F197" t="n">
-        <v>915839400000</v>
+        <v>915839384000</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5386,16 +5386,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>914731600000</v>
+        <v>914731599000</v>
       </c>
       <c r="D198" t="n">
-        <v>914731600000</v>
+        <v>914731599000</v>
       </c>
       <c r="E198" t="n">
-        <v>914731600000</v>
+        <v>914731599000</v>
       </c>
       <c r="F198" t="n">
-        <v>914731600000</v>
+        <v>914731599000</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -5411,16 +5411,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>920112100000</v>
+        <v>920112136000</v>
       </c>
       <c r="D199" t="n">
-        <v>920112100000</v>
+        <v>920112136000</v>
       </c>
       <c r="E199" t="n">
-        <v>920112100000</v>
+        <v>920112136000</v>
       </c>
       <c r="F199" t="n">
-        <v>920112100000</v>
+        <v>920112136000</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5436,16 +5436,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>927344500000</v>
+        <v>927344506000</v>
       </c>
       <c r="D200" t="n">
-        <v>927344500000</v>
+        <v>927344506000</v>
       </c>
       <c r="E200" t="n">
-        <v>927344500000</v>
+        <v>927344506000</v>
       </c>
       <c r="F200" t="n">
-        <v>927344500000</v>
+        <v>927344506000</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5461,16 +5461,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>921661500000</v>
+        <v>921661484000</v>
       </c>
       <c r="D201" t="n">
-        <v>921661500000</v>
+        <v>921661484000</v>
       </c>
       <c r="E201" t="n">
-        <v>921661500000</v>
+        <v>921661484000</v>
       </c>
       <c r="F201" t="n">
-        <v>921661500000</v>
+        <v>921661484000</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -5489,13 +5489,13 @@
         <v>928358800000</v>
       </c>
       <c r="D202" t="n">
-        <v>928358800000</v>
+        <v>928358847000</v>
       </c>
       <c r="E202" t="n">
         <v>928358800000</v>
       </c>
       <c r="F202" t="n">
-        <v>928358800000</v>
+        <v>928358847000</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>931041800000</v>
+        <v>931041815000</v>
       </c>
       <c r="D203" t="n">
-        <v>931041800000</v>
+        <v>931041815000</v>
       </c>
       <c r="E203" t="n">
-        <v>931041800000</v>
+        <v>931041815000</v>
       </c>
       <c r="F203" t="n">
-        <v>931041800000</v>
+        <v>931041815000</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -5536,16 +5536,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>935095200000</v>
+        <v>935095233000</v>
       </c>
       <c r="D204" t="n">
-        <v>935095200000</v>
+        <v>935095233000</v>
       </c>
       <c r="E204" t="n">
-        <v>935095200000</v>
+        <v>935095233000</v>
       </c>
       <c r="F204" t="n">
-        <v>935095200000</v>
+        <v>935095233000</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -5564,13 +5564,13 @@
         <v>934713200000</v>
       </c>
       <c r="D205" t="n">
-        <v>934713200000</v>
+        <v>934713236000</v>
       </c>
       <c r="E205" t="n">
         <v>934713200000</v>
       </c>
       <c r="F205" t="n">
-        <v>934713200000</v>
+        <v>934713236000</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>960344900000</v>
+        <v>960344913000</v>
       </c>
       <c r="D206" t="n">
-        <v>960344900000</v>
+        <v>960344913000</v>
       </c>
       <c r="E206" t="n">
-        <v>960344900000</v>
+        <v>960344913000</v>
       </c>
       <c r="F206" t="n">
-        <v>960344900000</v>
+        <v>960344913000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5611,16 +5611,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>947443300000</v>
+        <v>947443323000</v>
       </c>
       <c r="D207" t="n">
-        <v>947443300000</v>
+        <v>947443323000</v>
       </c>
       <c r="E207" t="n">
-        <v>947443300000</v>
+        <v>947443323000</v>
       </c>
       <c r="F207" t="n">
-        <v>947443300000</v>
+        <v>947443323000</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>954284100000</v>
+        <v>954284053000</v>
       </c>
       <c r="D208" t="n">
-        <v>954284100000</v>
+        <v>954284053000</v>
       </c>
       <c r="E208" t="n">
-        <v>954284100000</v>
+        <v>954284053000</v>
       </c>
       <c r="F208" t="n">
-        <v>954284100000</v>
+        <v>954284053000</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>964623700000</v>
+        <v>964623741000</v>
       </c>
       <c r="D209" t="n">
-        <v>964623700000</v>
+        <v>964623741000</v>
       </c>
       <c r="E209" t="n">
-        <v>964623700000</v>
+        <v>964623741000</v>
       </c>
       <c r="F209" t="n">
-        <v>964623700000</v>
+        <v>964623741000</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>969753500000</v>
+        <v>969753516000</v>
       </c>
       <c r="D210" t="n">
-        <v>969753500000</v>
+        <v>969753516000</v>
       </c>
       <c r="E210" t="n">
-        <v>969753500000</v>
+        <v>969753516000</v>
       </c>
       <c r="F210" t="n">
-        <v>969753500000</v>
+        <v>969753516000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>975000900000</v>
       </c>
       <c r="D211" t="n">
-        <v>975000900000</v>
+        <v>975000902000</v>
       </c>
       <c r="E211" t="n">
         <v>975000900000</v>
       </c>
       <c r="F211" t="n">
-        <v>975000900000</v>
+        <v>975000902000</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>980089500000</v>
+        <v>980089488000</v>
       </c>
       <c r="D212" t="n">
-        <v>980089500000</v>
+        <v>980089488000</v>
       </c>
       <c r="E212" t="n">
-        <v>980089500000</v>
+        <v>980089488000</v>
       </c>
       <c r="F212" t="n">
-        <v>980089500000</v>
+        <v>980089488000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>985769200000</v>
+        <v>985769156000</v>
       </c>
       <c r="D213" t="n">
-        <v>985769200000</v>
+        <v>985769156000</v>
       </c>
       <c r="E213" t="n">
-        <v>985769200000</v>
+        <v>985769156000</v>
       </c>
       <c r="F213" t="n">
-        <v>985769200000</v>
+        <v>985769156000</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -5792,10 +5792,10 @@
         <v>1003128400000</v>
       </c>
       <c r="E214" t="n">
-        <v>1003128400000</v>
+        <v>1003128364000</v>
       </c>
       <c r="F214" t="n">
-        <v>1003128400000</v>
+        <v>1003128364000</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1003354300000</v>
+        <v>1003354341000</v>
       </c>
       <c r="D215" t="n">
-        <v>1003354300000</v>
+        <v>1003354341000</v>
       </c>
       <c r="E215" t="n">
-        <v>1003354300000</v>
+        <v>1003354341000</v>
       </c>
       <c r="F215" t="n">
-        <v>1003354300000</v>
+        <v>1003354341000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1011930600000</v>
+        <v>1011930555000</v>
       </c>
       <c r="D216" t="n">
-        <v>1011930600000</v>
+        <v>1011930555000</v>
       </c>
       <c r="E216" t="n">
-        <v>1011930600000</v>
+        <v>1011930555000</v>
       </c>
       <c r="F216" t="n">
-        <v>1011930600000</v>
+        <v>1011930555000</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1017658800000</v>
+        <v>1017658848000</v>
       </c>
       <c r="D217" t="n">
-        <v>1017658800000</v>
+        <v>1017658848000</v>
       </c>
       <c r="E217" t="n">
-        <v>1017658800000</v>
+        <v>1017658848000</v>
       </c>
       <c r="F217" t="n">
-        <v>1017658800000</v>
+        <v>1017658848000</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1044571200000</v>
+        <v>1044552907000</v>
       </c>
       <c r="D218" t="n">
-        <v>1044571200000</v>
+        <v>1044552907000</v>
       </c>
       <c r="E218" t="n">
-        <v>1044571200000</v>
+        <v>1044552907000</v>
       </c>
       <c r="F218" t="n">
-        <v>1044571200000</v>
+        <v>1044552907000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1032424400000</v>
+        <v>1032424444000</v>
       </c>
       <c r="D219" t="n">
-        <v>1032424400000</v>
+        <v>1032424444000</v>
       </c>
       <c r="E219" t="n">
-        <v>1032424400000</v>
+        <v>1032424444000</v>
       </c>
       <c r="F219" t="n">
-        <v>1032424400000</v>
+        <v>1032424444000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1038760600000</v>
+        <v>1038760559000</v>
       </c>
       <c r="D220" t="n">
-        <v>1038760600000</v>
+        <v>1038760559000</v>
       </c>
       <c r="E220" t="n">
-        <v>1038760600000</v>
+        <v>1038760559000</v>
       </c>
       <c r="F220" t="n">
-        <v>1038760600000</v>
+        <v>1038760559000</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -5961,16 +5961,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1050848900000</v>
+        <v>1050848922000</v>
       </c>
       <c r="D221" t="n">
-        <v>1050848900000</v>
+        <v>1050848922000</v>
       </c>
       <c r="E221" t="n">
-        <v>1050848900000</v>
+        <v>1050848922000</v>
       </c>
       <c r="F221" t="n">
-        <v>1050848900000</v>
+        <v>1050848922000</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1043441600000</v>
+        <v>1043441637000</v>
       </c>
       <c r="D222" t="n">
-        <v>1043441600000</v>
+        <v>1043441637000</v>
       </c>
       <c r="E222" t="n">
-        <v>1043441600000</v>
+        <v>1043441637000</v>
       </c>
       <c r="F222" t="n">
-        <v>1043441600000</v>
+        <v>1043441637000</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1052741000000</v>
+        <v>1052740961000</v>
       </c>
       <c r="D223" t="n">
-        <v>1052741000000</v>
+        <v>1052740961000</v>
       </c>
       <c r="E223" t="n">
-        <v>1052741000000</v>
+        <v>1052740961000</v>
       </c>
       <c r="F223" t="n">
-        <v>1052741000000</v>
+        <v>1052740961000</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6036,16 +6036,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1065897300000</v>
+        <v>1065897275000</v>
       </c>
       <c r="D224" t="n">
-        <v>1065897300000</v>
+        <v>1065897275000</v>
       </c>
       <c r="E224" t="n">
-        <v>1065897300000</v>
+        <v>1065897275000</v>
       </c>
       <c r="F224" t="n">
-        <v>1065897300000</v>
+        <v>1065897275000</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6061,16 +6061,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1074074500000</v>
+        <v>1074074485000</v>
       </c>
       <c r="D225" t="n">
-        <v>1074074500000</v>
+        <v>1074074485000</v>
       </c>
       <c r="E225" t="n">
-        <v>1074074500000</v>
+        <v>1074074485000</v>
       </c>
       <c r="F225" t="n">
-        <v>1074074500000</v>
+        <v>1074074485000</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1083208700000</v>
+        <v>1083208702000</v>
       </c>
       <c r="D226" t="n">
-        <v>1083208700000</v>
+        <v>1083208702000</v>
       </c>
       <c r="E226" t="n">
-        <v>1083208700000</v>
+        <v>1083208702000</v>
       </c>
       <c r="F226" t="n">
-        <v>1083208700000</v>
+        <v>1083208702000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1094310500000</v>
+        <v>1094310501000</v>
       </c>
       <c r="D227" t="n">
-        <v>1094310500000</v>
+        <v>1094310501000</v>
       </c>
       <c r="E227" t="n">
-        <v>1094310500000</v>
+        <v>1094310501000</v>
       </c>
       <c r="F227" t="n">
-        <v>1094310500000</v>
+        <v>1094310501000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1107298100000</v>
+        <v>1107298067000</v>
       </c>
       <c r="D228" t="n">
-        <v>1107298100000</v>
+        <v>1107298067000</v>
       </c>
       <c r="E228" t="n">
-        <v>1107298100000</v>
+        <v>1107298067000</v>
       </c>
       <c r="F228" t="n">
-        <v>1107298100000</v>
+        <v>1107298067000</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1119991600000</v>
+        <v>1118293720000</v>
       </c>
       <c r="D229" t="n">
-        <v>1119991600000</v>
+        <v>1118293720000</v>
       </c>
       <c r="E229" t="n">
-        <v>1119991600000</v>
+        <v>1118293720000</v>
       </c>
       <c r="F229" t="n">
-        <v>1119991600000</v>
+        <v>1118293720000</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1145667300000</v>
+        <v>1145258817000</v>
       </c>
       <c r="D230" t="n">
-        <v>1145667300000</v>
+        <v>1145258817000</v>
       </c>
       <c r="E230" t="n">
-        <v>1145667300000</v>
+        <v>1145258817000</v>
       </c>
       <c r="F230" t="n">
-        <v>1145667300000</v>
+        <v>1145258817000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1140951300000</v>
+        <v>1140951337000</v>
       </c>
       <c r="D231" t="n">
-        <v>1140951300000</v>
+        <v>1140951337000</v>
       </c>
       <c r="E231" t="n">
-        <v>1140951300000</v>
+        <v>1140951337000</v>
       </c>
       <c r="F231" t="n">
-        <v>1140951300000</v>
+        <v>1140951337000</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -6236,16 +6236,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1150393400000</v>
+        <v>1150393358000</v>
       </c>
       <c r="D232" t="n">
-        <v>1150393400000</v>
+        <v>1150393358000</v>
       </c>
       <c r="E232" t="n">
-        <v>1150393400000</v>
+        <v>1150393358000</v>
       </c>
       <c r="F232" t="n">
-        <v>1150393400000</v>
+        <v>1150393358000</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1154736100000</v>
+        <v>1154736097000</v>
       </c>
       <c r="D233" t="n">
-        <v>1154736100000</v>
+        <v>1154736097000</v>
       </c>
       <c r="E233" t="n">
-        <v>1154736100000</v>
+        <v>1154736097000</v>
       </c>
       <c r="F233" t="n">
-        <v>1154736100000</v>
+        <v>1154736097000</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -6286,16 +6286,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1169793200000</v>
+        <v>1169793673000</v>
       </c>
       <c r="D234" t="n">
-        <v>1169793200000</v>
+        <v>1169793673000</v>
       </c>
       <c r="E234" t="n">
-        <v>1169793200000</v>
+        <v>1169793673000</v>
       </c>
       <c r="F234" t="n">
-        <v>1169793200000</v>
+        <v>1169793673000</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1180640200000</v>
+        <v>1180640185000</v>
       </c>
       <c r="D235" t="n">
-        <v>1180640200000</v>
+        <v>1180640185000</v>
       </c>
       <c r="E235" t="n">
-        <v>1180640200000</v>
+        <v>1180640185000</v>
       </c>
       <c r="F235" t="n">
-        <v>1180640200000</v>
+        <v>1180640185000</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6336,16 +6336,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1192033500000</v>
+        <v>1192033525000</v>
       </c>
       <c r="D236" t="n">
-        <v>1192033500000</v>
+        <v>1192033525000</v>
       </c>
       <c r="E236" t="n">
-        <v>1192033500000</v>
+        <v>1192033525000</v>
       </c>
       <c r="F236" t="n">
-        <v>1192033500000</v>
+        <v>1192033525000</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6361,16 +6361,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1194740000000</v>
+        <v>1194740021000</v>
       </c>
       <c r="D237" t="n">
-        <v>1194740000000</v>
+        <v>1194740021000</v>
       </c>
       <c r="E237" t="n">
-        <v>1194740000000</v>
+        <v>1194740021000</v>
       </c>
       <c r="F237" t="n">
-        <v>1194740000000</v>
+        <v>1194740021000</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1249467571000</v>
+        <v>1249015235000</v>
       </c>
       <c r="D248" t="n">
-        <v>1249467571000</v>
+        <v>1249015235000</v>
       </c>
       <c r="E248" t="n">
-        <v>1249467571000</v>
+        <v>1249015235000</v>
       </c>
       <c r="F248" t="n">
-        <v>1249467571000</v>
+        <v>1249015235000</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1252694988000</v>
+        <v>1252247803000</v>
       </c>
       <c r="D249" t="n">
-        <v>1252694988000</v>
+        <v>1252247803000</v>
       </c>
       <c r="E249" t="n">
-        <v>1252694988000</v>
+        <v>1252247803000</v>
       </c>
       <c r="F249" t="n">
-        <v>1252694988000</v>
+        <v>1252247803000</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1259261600000</v>
+        <v>1259261618000</v>
       </c>
       <c r="D250" t="n">
-        <v>1259261600000</v>
+        <v>1259261618000</v>
       </c>
       <c r="E250" t="n">
-        <v>1259261600000</v>
+        <v>1259261618000</v>
       </c>
       <c r="F250" t="n">
-        <v>1259261600000</v>
+        <v>1259261618000</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6711,16 +6711,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1266349000000</v>
+        <v>1266349040000</v>
       </c>
       <c r="D251" t="n">
-        <v>1266349000000</v>
+        <v>1266349040000</v>
       </c>
       <c r="E251" t="n">
-        <v>1266349000000</v>
+        <v>1266349040000</v>
       </c>
       <c r="F251" t="n">
-        <v>1266349000000</v>
+        <v>1266349040000</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1277419000000</v>
+        <v>1277419021000</v>
       </c>
       <c r="D252" t="n">
-        <v>1277419000000</v>
+        <v>1277419021000</v>
       </c>
       <c r="E252" t="n">
-        <v>1277419000000</v>
+        <v>1277419021000</v>
       </c>
       <c r="F252" t="n">
-        <v>1277419000000</v>
+        <v>1277419021000</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1312831898000</v>
+        <v>1312847319000</v>
       </c>
       <c r="D254" t="n">
-        <v>1312831898000</v>
+        <v>1312847319000</v>
       </c>
       <c r="E254" t="n">
-        <v>1312831898000</v>
+        <v>1312847319000</v>
       </c>
       <c r="F254" t="n">
-        <v>1312831898000</v>
+        <v>1312847319000</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6811,16 +6811,16 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1296258300000</v>
+        <v>1296258294000</v>
       </c>
       <c r="D255" t="n">
-        <v>1296258300000</v>
+        <v>1296258294000</v>
       </c>
       <c r="E255" t="n">
-        <v>1296258300000</v>
+        <v>1296258294000</v>
       </c>
       <c r="F255" t="n">
-        <v>1296258300000</v>
+        <v>1296258294000</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6886,16 +6886,16 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1313095300000</v>
+        <v>1313095269000</v>
       </c>
       <c r="D258" t="n">
-        <v>1313095300000</v>
+        <v>1313095269000</v>
       </c>
       <c r="E258" t="n">
-        <v>1313095300000</v>
+        <v>1313095269000</v>
       </c>
       <c r="F258" t="n">
-        <v>1313095300000</v>
+        <v>1313095269000</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -7061,16 +7061,16 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1395254200000</v>
+        <v>1395254167000</v>
       </c>
       <c r="D265" t="n">
-        <v>1395254200000</v>
+        <v>1395254167000</v>
       </c>
       <c r="E265" t="n">
-        <v>1395254200000</v>
+        <v>1395254167000</v>
       </c>
       <c r="F265" t="n">
-        <v>1395254200000</v>
+        <v>1395254167000</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -7086,16 +7086,16 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1428234100000</v>
+        <v>1428233205000</v>
       </c>
       <c r="D266" t="n">
-        <v>1428234100000</v>
+        <v>1428233205000</v>
       </c>
       <c r="E266" t="n">
-        <v>1428234100000</v>
+        <v>1428233205000</v>
       </c>
       <c r="F266" t="n">
-        <v>1428234100000</v>
+        <v>1428233205000</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
@@ -7161,16 +7161,16 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1442834343000</v>
+        <v>1442834344000</v>
       </c>
       <c r="D269" t="n">
-        <v>1442834343000</v>
+        <v>1442834344000</v>
       </c>
       <c r="E269" t="n">
-        <v>1442834343000</v>
+        <v>1442834344000</v>
       </c>
       <c r="F269" t="n">
-        <v>1442834343000</v>
+        <v>1442834344000</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -7186,16 +7186,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1453094800000</v>
+        <v>1453094839000</v>
       </c>
       <c r="D270" t="n">
-        <v>1453094800000</v>
+        <v>1453094839000</v>
       </c>
       <c r="E270" t="n">
-        <v>1453094800000</v>
+        <v>1453094839000</v>
       </c>
       <c r="F270" t="n">
-        <v>1453094800000</v>
+        <v>1453094839000</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
@@ -7211,16 +7211,16 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1467430900000</v>
+        <v>1467430917000</v>
       </c>
       <c r="D271" t="n">
-        <v>1467430900000</v>
+        <v>1467430917000</v>
       </c>
       <c r="E271" t="n">
-        <v>1467430900000</v>
+        <v>1467430917000</v>
       </c>
       <c r="F271" t="n">
-        <v>1467430900000</v>
+        <v>1467430917000</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -7386,16 +7386,16 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1552642938000</v>
+        <v>1552647893000</v>
       </c>
       <c r="D278" t="n">
-        <v>1552642938000</v>
+        <v>1552647893000</v>
       </c>
       <c r="E278" t="n">
-        <v>1552642938000</v>
+        <v>1552647893000</v>
       </c>
       <c r="F278" t="n">
-        <v>1552642938000</v>
+        <v>1552647893000</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -7461,16 +7461,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1617386270000</v>
+        <v>1617386266000</v>
       </c>
       <c r="D281" t="n">
-        <v>1617386270000</v>
+        <v>1617386266000</v>
       </c>
       <c r="E281" t="n">
-        <v>1617386270000</v>
+        <v>1617386266000</v>
       </c>
       <c r="F281" t="n">
-        <v>1617386270000</v>
+        <v>1617386266000</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
@@ -7686,16 +7686,16 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1814671271000</v>
+        <v>1814748873000</v>
       </c>
       <c r="D290" t="n">
-        <v>1814671271000</v>
+        <v>1814748873000</v>
       </c>
       <c r="E290" t="n">
-        <v>1814671271000</v>
+        <v>1814748873000</v>
       </c>
       <c r="F290" t="n">
-        <v>1814671271000</v>
+        <v>1814748873000</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -7711,16 +7711,16 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1812420609000</v>
+        <v>1812420636000</v>
       </c>
       <c r="D291" t="n">
-        <v>1812420609000</v>
+        <v>1812420636000</v>
       </c>
       <c r="E291" t="n">
-        <v>1812420609000</v>
+        <v>1812420636000</v>
       </c>
       <c r="F291" t="n">
-        <v>1812420609000</v>
+        <v>1812420636000</v>
       </c>
       <c r="G291" t="n">
         <v>0</v>
@@ -7736,16 +7736,16 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1829432181000</v>
+        <v>1829434603000</v>
       </c>
       <c r="D292" t="n">
-        <v>1829432181000</v>
+        <v>1829434603000</v>
       </c>
       <c r="E292" t="n">
-        <v>1829432181000</v>
+        <v>1829434603000</v>
       </c>
       <c r="F292" t="n">
-        <v>1829432181000</v>
+        <v>1829434603000</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
@@ -7761,16 +7761,16 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1856225854000</v>
+        <v>1856144729000</v>
       </c>
       <c r="D293" t="n">
-        <v>1856225854000</v>
+        <v>1856144729000</v>
       </c>
       <c r="E293" t="n">
-        <v>1856225854000</v>
+        <v>1856144729000</v>
       </c>
       <c r="F293" t="n">
-        <v>1856225854000</v>
+        <v>1856144729000</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -7986,16 +7986,16 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1974640099000</v>
+        <v>1974496760000</v>
       </c>
       <c r="D302" t="n">
-        <v>1974640099000</v>
+        <v>1974496760000</v>
       </c>
       <c r="E302" t="n">
-        <v>1974640099000</v>
+        <v>1974496760000</v>
       </c>
       <c r="F302" t="n">
-        <v>1974640099000</v>
+        <v>1974496760000</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -8161,16 +8161,16 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2002463400000</v>
+        <v>2002463392000</v>
       </c>
       <c r="D309" t="n">
-        <v>2002463400000</v>
+        <v>2002463392000</v>
       </c>
       <c r="E309" t="n">
-        <v>2002463400000</v>
+        <v>2002463392000</v>
       </c>
       <c r="F309" t="n">
-        <v>2002463400000</v>
+        <v>2002463392000</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>
@@ -8186,16 +8186,16 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2033757000000</v>
+        <v>2033757005000</v>
       </c>
       <c r="D310" t="n">
-        <v>2033757000000</v>
+        <v>2033757005000</v>
       </c>
       <c r="E310" t="n">
-        <v>2033757000000</v>
+        <v>2033757005000</v>
       </c>
       <c r="F310" t="n">
-        <v>2033757000000</v>
+        <v>2033757005000</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>
@@ -8211,16 +8211,16 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2052451000000</v>
+        <v>2052450999000</v>
       </c>
       <c r="D311" t="n">
-        <v>2052451000000</v>
+        <v>2052450999000</v>
       </c>
       <c r="E311" t="n">
-        <v>2052451000000</v>
+        <v>2052450999000</v>
       </c>
       <c r="F311" t="n">
-        <v>2052451000000</v>
+        <v>2052450999000</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2057872200000</v>
+        <v>2057872208000</v>
       </c>
       <c r="D312" t="n">
-        <v>2057872200000</v>
+        <v>2057872208000</v>
       </c>
       <c r="E312" t="n">
-        <v>2057872200000</v>
+        <v>2057872208000</v>
       </c>
       <c r="F312" t="n">
-        <v>2057872200000</v>
+        <v>2057872208000</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>
@@ -8286,16 +8286,16 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2078216858000</v>
+        <v>2078248384000</v>
       </c>
       <c r="D314" t="n">
-        <v>2078216858000</v>
+        <v>2078248384000</v>
       </c>
       <c r="E314" t="n">
-        <v>2078216858000</v>
+        <v>2078248384000</v>
       </c>
       <c r="F314" t="n">
-        <v>2078216858000</v>
+        <v>2078248384000</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
@@ -8448,6 +8448,81 @@
         <v>2139841737000</v>
       </c>
       <c r="G320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2158437380000</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2158437380000</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2158437380000</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2158437380000</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2182060980000</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2182060980000</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2182060980000</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2182060980000</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PLM2</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>2225679570000</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2225679570000</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2225679570000</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2225679570000</v>
+      </c>
+      <c r="G323" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Poland_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7836,6 +7836,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>2230677980000</v>
+      </c>
+      <c r="D324">
+        <v>2230677980000</v>
+      </c>
+      <c r="E324">
+        <v>2230677980000</v>
+      </c>
+      <c r="F324">
+        <v>2230677980000</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
